--- a/biology/Botanique/Chnoospora/Chnoospora.xlsx
+++ b/biology/Botanique/Chnoospora/Chnoospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chnoospora est un genre d’algues brunes de la famille des Scytosiphonaceae selon AlgaeBase                                           (3 janvier 2020)[1], ou de la famille des Chnoosporaceae selon World Register of Marine Species                               (3 janvier 2020)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chnoospora est un genre d’algues brunes de la famille des Scytosiphonaceae selon AlgaeBase                                           (3 janvier 2020), ou de la famille des Chnoosporaceae selon World Register of Marine Species                               (3 janvier 2020).
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (3 janvier 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (3 janvier 2020) :
 Chnoospora bicanaliculata V.Krishnamurthy &amp; Thomas, 1977
 Chnoospora fastigiata var. atlantica (J.Agardh) J.Agardh
 Chnoospora minima (Hering) Papenfuss, 1956
-Selon World Register of Marine Species                               (3 janvier 2020)[2] :
+Selon World Register of Marine Species                               (3 janvier 2020) :
 Chnoospora bicanaliculata V.Krishnamurthy &amp; Thomas, 1977
 Chnoospora implexa J.Agardh, 1848
 Chnoospora minima (Hering) Papenfuss, 1956
-Espèces mises en synonymie selon AlgaeBase                                           (3 janvier 2020)[1] :
+Espèces mises en synonymie selon AlgaeBase                                           (3 janvier 2020) :
 Chnoospora atlantica J.Agardh ≡ Chnoospora fastigiata var. atlantica (J.Agardh) J.Agardh
 Chnoospora fastigiata J.Agardh = Chnoospora minima (Hering) Papenfuss
 Chnoospora fastigiata var. pacifica (J.Agardh) J.Agardh = Chnoospora minima (Hering) Papenfuss
